--- a/Datos definitivos/Seno.xlsx
+++ b/Datos definitivos/Seno.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -101,8 +100,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1713168555352369E-2"/>
-          <c:y val="3.1296743298208231E-2"/>
+          <c:x val="6.9629757217847768E-2"/>
+          <c:y val="3.6863982816344197E-2"/>
           <c:w val="0.731740949442931"/>
           <c:h val="0.9374065134035835"/>
         </c:manualLayout>
@@ -318,190 +317,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>-3.1372549019607843E-2</c:v>
+                  <c:v>-1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43941176470588234</c:v>
+                  <c:v>22.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95235294117647062</c:v>
+                  <c:v>48.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4101960784313725</c:v>
+                  <c:v>71.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8770588235294119</c:v>
+                  <c:v>95.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3049019607843135</c:v>
+                  <c:v>117.54999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7713725490196079</c:v>
+                  <c:v>141.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1690196078431372</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5521568627450981</c:v>
+                  <c:v>181.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8972549019607841</c:v>
+                  <c:v>198.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2005882352941173</c:v>
+                  <c:v>214.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4478431372549023</c:v>
+                  <c:v>226.84000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6688235294117648</c:v>
+                  <c:v>238.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8227450980392161</c:v>
+                  <c:v>245.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9335294117647059</c:v>
+                  <c:v>251.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9911764705882353</c:v>
+                  <c:v>254.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9950980392156863</c:v>
+                  <c:v>254.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9490196078431374</c:v>
+                  <c:v>252.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8486274509803922</c:v>
+                  <c:v>247.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6962745098039216</c:v>
+                  <c:v>239.51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4935294117647056</c:v>
+                  <c:v>229.17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2549019607843137</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9603921568627447</c:v>
+                  <c:v>201.98</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6231372549019607</c:v>
+                  <c:v>184.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2472549019607846</c:v>
+                  <c:v>165.61</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8556862745098037</c:v>
+                  <c:v>145.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4154901960784314</c:v>
+                  <c:v>123.19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.949607843137255</c:v>
+                  <c:v>99.43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4850980392156861</c:v>
+                  <c:v>75.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0292156862745099</c:v>
+                  <c:v>52.49</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54078431372549018</c:v>
+                  <c:v>27.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7058823529411764E-2</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.42372549019607841</c:v>
+                  <c:v>-21.61</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.913921568627451</c:v>
+                  <c:v>-46.61</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.4401960784313725</c:v>
+                  <c:v>-73.45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.9062745098039215</c:v>
+                  <c:v>-97.22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.3743137254901963</c:v>
+                  <c:v>-121.09</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.8170588235294116</c:v>
+                  <c:v>-143.66999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3.2652941176470587</c:v>
+                  <c:v>-166.53</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.6396078431372549</c:v>
+                  <c:v>-185.62</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.989019607843137</c:v>
+                  <c:v>-203.44</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.3037254901960784</c:v>
+                  <c:v>-219.49</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4.5441176470588234</c:v>
+                  <c:v>-231.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4.7503921568627456</c:v>
+                  <c:v>-242.27000000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.8862745098039211</c:v>
+                  <c:v>-249.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-4.9723529411764709</c:v>
+                  <c:v>-253.59</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.969019607843137</c:v>
+                  <c:v>-253.42</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.8847058823529412</c:v>
+                  <c:v>-249.12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4.7329411764705878</c:v>
+                  <c:v>-241.37999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.5405882352941171</c:v>
+                  <c:v>-231.56999999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.2754901960784313</c:v>
+                  <c:v>-218.04999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.9841176470588233</c:v>
+                  <c:v>-203.19</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.6178431372549018</c:v>
+                  <c:v>-184.51</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.2231372549019608</c:v>
+                  <c:v>-164.38</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.8103921568627452</c:v>
+                  <c:v>-143.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-2.3256862745098039</c:v>
+                  <c:v>-118.61</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.8550980392156862</c:v>
+                  <c:v>-94.61</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.3419607843137253</c:v>
+                  <c:v>-68.44</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.85941176470588232</c:v>
+                  <c:v>-43.83</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.34509803921568633</c:v>
+                  <c:v>-17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.17294117647058824</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280610688"/>
-        <c:axId val="280612224"/>
+        <c:axId val="418460800"/>
+        <c:axId val="418462336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280610688"/>
+        <c:axId val="418460800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2665"/>
@@ -930,12 +929,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280612224"/>
+        <c:crossAx val="418462336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280612224"/>
+        <c:axId val="418462336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280610688"/>
+        <c:crossAx val="418460800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,15 +972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1293,7 +1292,7 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-3.1372549019607843E-2</v>
+        <v>-1.6</v>
       </c>
       <c r="B1">
         <v>46.68</v>
@@ -1318,7 +1317,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.43941176470588234</v>
+        <v>22.41</v>
       </c>
       <c r="B2">
         <v>47.1</v>
@@ -1333,7 +1332,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.95235294117647062</v>
+        <v>48.57</v>
       </c>
       <c r="B3">
         <v>47.16</v>
@@ -1362,7 +1361,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.4101960784313725</v>
+        <v>71.92</v>
       </c>
       <c r="B4">
         <v>47.42</v>
@@ -1384,7 +1383,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.8770588235294119</v>
+        <v>95.73</v>
       </c>
       <c r="B5">
         <v>47.41</v>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.3049019607843135</v>
+        <v>117.54999999999998</v>
       </c>
       <c r="B6">
         <v>47.16</v>
@@ -1429,7 +1428,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.7713725490196079</v>
+        <v>141.34</v>
       </c>
       <c r="B7">
         <v>47.11</v>
@@ -1444,7 +1443,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.1690196078431372</v>
+        <v>161.62</v>
       </c>
       <c r="B8">
         <v>46.99</v>
@@ -1459,7 +1458,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.5521568627450981</v>
+        <v>181.16</v>
       </c>
       <c r="B9">
         <v>46.96</v>
@@ -1474,7 +1473,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.8972549019607841</v>
+        <v>198.76</v>
       </c>
       <c r="B10">
         <v>46.65</v>
@@ -1489,7 +1488,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4.2005882352941173</v>
+        <v>214.23</v>
       </c>
       <c r="B11">
         <v>46.32</v>
@@ -1504,7 +1503,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.4478431372549023</v>
+        <v>226.84000000000003</v>
       </c>
       <c r="B12">
         <v>46.03</v>
@@ -1519,7 +1518,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4.6688235294117648</v>
+        <v>238.11</v>
       </c>
       <c r="B13">
         <v>45.41</v>
@@ -1534,7 +1533,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.8227450980392161</v>
+        <v>245.96000000000004</v>
       </c>
       <c r="B14">
         <v>45.24</v>
@@ -1549,7 +1548,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.9335294117647059</v>
+        <v>251.61</v>
       </c>
       <c r="B15">
         <v>44.76</v>
@@ -1564,7 +1563,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.9911764705882353</v>
+        <v>254.55</v>
       </c>
       <c r="B16">
         <v>43.57</v>
@@ -1579,7 +1578,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.9950980392156863</v>
+        <v>254.75</v>
       </c>
       <c r="B17">
         <v>42.59</v>
@@ -1594,7 +1593,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4.9490196078431374</v>
+        <v>252.4</v>
       </c>
       <c r="B18">
         <v>42.18</v>
@@ -1609,7 +1608,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.8486274509803922</v>
+        <v>247.28</v>
       </c>
       <c r="B19">
         <v>40.72</v>
@@ -1624,7 +1623,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.6962745098039216</v>
+        <v>239.51</v>
       </c>
       <c r="B20">
         <v>39.950000000000003</v>
@@ -1639,7 +1638,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.4935294117647056</v>
+        <v>229.17</v>
       </c>
       <c r="B21">
         <v>38.85</v>
@@ -1654,7 +1653,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.2549019607843137</v>
+        <v>217</v>
       </c>
       <c r="B22">
         <v>37.25</v>
@@ -1669,7 +1668,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3.9603921568627447</v>
+        <v>201.98</v>
       </c>
       <c r="B23">
         <v>35.96</v>
@@ -1684,7 +1683,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3.6231372549019607</v>
+        <v>184.78</v>
       </c>
       <c r="B24">
         <v>35.090000000000003</v>
@@ -1699,7 +1698,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.2472549019607846</v>
+        <v>165.61</v>
       </c>
       <c r="B25">
         <v>33.68</v>
@@ -1714,7 +1713,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.8556862745098037</v>
+        <v>145.63999999999999</v>
       </c>
       <c r="B26">
         <v>31.92</v>
@@ -1729,7 +1728,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.4154901960784314</v>
+        <v>123.19</v>
       </c>
       <c r="B27">
         <v>31.08</v>
@@ -1744,7 +1743,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.949607843137255</v>
+        <v>99.43</v>
       </c>
       <c r="B28">
         <v>29.64</v>
@@ -1759,7 +1758,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.4850980392156861</v>
+        <v>75.739999999999995</v>
       </c>
       <c r="B29">
         <v>28.38</v>
@@ -1774,7 +1773,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.0292156862745099</v>
+        <v>52.49</v>
       </c>
       <c r="B30">
         <v>27.71</v>
@@ -1789,7 +1788,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.54078431372549018</v>
+        <v>27.58</v>
       </c>
       <c r="B31">
         <v>26.31</v>
@@ -1804,7 +1803,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4.7058823529411764E-2</v>
+        <v>2.4</v>
       </c>
       <c r="B32">
         <v>25.15</v>
@@ -1819,7 +1818,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-0.42372549019607841</v>
+        <v>-21.61</v>
       </c>
       <c r="B33">
         <v>24.74</v>
@@ -1834,7 +1833,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-0.913921568627451</v>
+        <v>-46.61</v>
       </c>
       <c r="B34">
         <v>24.02</v>
@@ -1849,7 +1848,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-1.4401960784313725</v>
+        <v>-73.45</v>
       </c>
       <c r="B35">
         <v>23.4</v>
@@ -1864,7 +1863,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-1.9062745098039215</v>
+        <v>-97.22</v>
       </c>
       <c r="B36">
         <v>22.71</v>
@@ -1879,7 +1878,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-2.3743137254901963</v>
+        <v>-121.09</v>
       </c>
       <c r="B37">
         <v>22.41</v>
@@ -1894,7 +1893,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-2.8170588235294116</v>
+        <v>-143.66999999999999</v>
       </c>
       <c r="B38">
         <v>21.68</v>
@@ -1909,7 +1908,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-3.2652941176470587</v>
+        <v>-166.53</v>
       </c>
       <c r="B39">
         <v>21.94</v>
@@ -1924,7 +1923,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-3.6396078431372549</v>
+        <v>-185.62</v>
       </c>
       <c r="B40">
         <v>21.68</v>
@@ -1939,7 +1938,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-3.989019607843137</v>
+        <v>-203.44</v>
       </c>
       <c r="B41">
         <v>21.84</v>
@@ -1954,7 +1953,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-4.3037254901960784</v>
+        <v>-219.49</v>
       </c>
       <c r="B42">
         <v>21.99</v>
@@ -1969,7 +1968,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-4.5441176470588234</v>
+        <v>-231.75</v>
       </c>
       <c r="B43">
         <v>22.94</v>
@@ -1984,7 +1983,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-4.7503921568627456</v>
+        <v>-242.27000000000004</v>
       </c>
       <c r="B44">
         <v>22.97</v>
@@ -1999,7 +1998,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-4.8862745098039211</v>
+        <v>-249.2</v>
       </c>
       <c r="B45">
         <v>23.97</v>
@@ -2014,7 +2013,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-4.9723529411764709</v>
+        <v>-253.59</v>
       </c>
       <c r="B46">
         <v>24.23</v>
@@ -2029,7 +2028,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B47">
         <v>25.36</v>
@@ -2044,7 +2043,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-4.969019607843137</v>
+        <v>-253.42</v>
       </c>
       <c r="B48">
         <v>25.95</v>
@@ -2059,7 +2058,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-4.8847058823529412</v>
+        <v>-249.12</v>
       </c>
       <c r="B49">
         <v>26.92</v>
@@ -2074,7 +2073,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-4.7329411764705878</v>
+        <v>-241.37999999999997</v>
       </c>
       <c r="B50">
         <v>28.23</v>
@@ -2089,7 +2088,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-4.5405882352941171</v>
+        <v>-231.56999999999996</v>
       </c>
       <c r="B51">
         <v>29.54</v>
@@ -2104,7 +2103,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-4.2754901960784313</v>
+        <v>-218.04999999999998</v>
       </c>
       <c r="B52">
         <v>30.31</v>
@@ -2119,7 +2118,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-3.9841176470588233</v>
+        <v>-203.19</v>
       </c>
       <c r="B53">
         <v>32.130000000000003</v>
@@ -2134,7 +2133,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-3.6178431372549018</v>
+        <v>-184.51</v>
       </c>
       <c r="B54">
         <v>33.11</v>
@@ -2149,7 +2148,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-3.2231372549019608</v>
+        <v>-164.38</v>
       </c>
       <c r="B55">
         <v>34.549999999999997</v>
@@ -2164,7 +2163,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-2.8103921568627452</v>
+        <v>-143.33000000000001</v>
       </c>
       <c r="B56">
         <v>36</v>
@@ -2179,7 +2178,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-2.3256862745098039</v>
+        <v>-118.61</v>
       </c>
       <c r="B57">
         <v>37.35</v>
@@ -2194,7 +2193,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-1.8550980392156862</v>
+        <v>-94.61</v>
       </c>
       <c r="B58">
         <v>38.69</v>
@@ -2209,7 +2208,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1.3419607843137253</v>
+        <v>-68.44</v>
       </c>
       <c r="B59">
         <v>39.83</v>
@@ -2224,7 +2223,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-0.85941176470588232</v>
+        <v>-43.83</v>
       </c>
       <c r="B60">
         <v>41.13</v>
@@ -2239,7 +2238,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-0.34509803921568633</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="B61">
         <v>42.22</v>
@@ -2254,7 +2253,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.17294117647058824</v>
+        <v>8.82</v>
       </c>
       <c r="B62">
         <v>43.11</v>
